--- a/parsed_exam.xlsx
+++ b/parsed_exam.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -512,10 +512,12 @@
           <t>23.9</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -540,7 +542,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -551,10 +553,12 @@
           <t>36.9</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -579,7 +583,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -590,10 +594,12 @@
           <t>42.5</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -618,7 +624,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -629,10 +635,12 @@
           <t>52.6</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -657,7 +665,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -668,10 +676,12 @@
           <t>24</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -696,7 +706,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -707,10 +717,12 @@
           <t>36</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -735,7 +747,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -746,10 +758,12 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -774,7 +788,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -785,10 +799,12 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -813,7 +829,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -824,10 +840,12 @@
           <t>6.366</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -852,7 +870,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -863,10 +881,12 @@
           <t>63.66</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -891,7 +911,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -902,10 +922,12 @@
           <t>636.6</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -930,7 +952,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -941,10 +963,12 @@
           <t>6366</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -969,7 +993,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -980,10 +1004,12 @@
           <t>1/2만큼 감소</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1034,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1019,10 +1045,12 @@
           <t>2배로 증가</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1075,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1058,10 +1086,12 @@
           <t>4배로 증가</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1116,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F17" t="n">
@@ -1097,10 +1127,12 @@
           <t>변함없다.</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1157,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1136,10 +1168,12 @@
           <t>속도증가, 압력감소</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1198,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1175,10 +1209,12 @@
           <t>속도감소, 압력증가</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1239,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1214,10 +1250,12 @@
           <t>속도감소, 압력불변</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1280,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1253,10 +1291,12 @@
           <t>속도불변, 압력증가</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1321,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1292,10 +1332,12 @@
           <t>비가역 과정</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1362,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1331,10 +1373,12 @@
           <t>등엔트로피 과정</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1403,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1370,10 +1414,12 @@
           <t>가역 과정</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1444,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1409,10 +1455,12 @@
           <t>등압 및 등엔탈피 과정</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1485,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1448,10 +1496,12 @@
           <t>격막 펌프</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1526,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1487,10 +1537,12 @@
           <t>기어 펌프</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1515,7 +1567,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1526,10 +1578,12 @@
           <t>플렌지 펌프</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1608,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1565,10 +1619,12 @@
           <t>피스톤 펌프</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1649,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1604,10 +1660,12 @@
           <t>수은기압계</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1690,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -1643,10 +1701,12 @@
           <t>오리피스미터</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1671,7 +1731,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -1682,10 +1742,12 @@
           <t>로타미터</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1710,7 +1772,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1721,10 +1783,12 @@
           <t>둑(weir)</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1813,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -1760,10 +1824,12 @@
           <t>압력 및 밀도는 감소한다.</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1854,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -1799,10 +1865,12 @@
           <t>속도 및 밀도는 증가한다.</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1827,7 +1895,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -1838,10 +1906,12 @@
           <t>속도는 증가하고, 밀도는 감소한다.</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1936,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -1877,10 +1947,12 @@
           <t>압력은 증가하고, 속드는 감소한다.</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1977,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -1916,10 +1988,12 @@
           <t>uA = 2.045, uB = 1.022</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -1944,7 +2018,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -1955,10 +2029,12 @@
           <t>uA = 2.045, uB = 0.511</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -1983,7 +2059,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -1994,10 +2070,12 @@
           <t>uA = 7.919, uB = 1.980</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2022,7 +2100,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2033,10 +2111,12 @@
           <t>uA = 3.960, uB = 1.980</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2141,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2072,10 +2152,12 @@
           <t>층류</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2100,7 +2182,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2111,10 +2193,12 @@
           <t>난류</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -2139,7 +2223,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2150,10 +2234,12 @@
           <t>플러그 흐름</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2264,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2189,10 +2275,12 @@
           <t>천이영역 흐름</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2305,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2228,10 +2316,12 @@
           <t>1400</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2346,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2267,10 +2357,12 @@
           <t>1500</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2295,7 +2387,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2306,10 +2398,12 @@
           <t>1600</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2428,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2345,10 +2439,12 @@
           <t>1700</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2373,7 +2469,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2384,10 +2480,12 @@
           <t>팬</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr"/>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2510,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2423,10 +2521,12 @@
           <t>송풍기</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2551,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F52" t="n">
@@ -2462,10 +2562,12 @@
           <t>압축기</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2490,7 +2592,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F53" t="n">
@@ -2501,10 +2603,12 @@
           <t>펌프</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2633,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F54" t="n">
@@ -2540,10 +2644,12 @@
           <t>Hagen-Poiseuolle 법칙</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -2568,7 +2674,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -2579,10 +2685,12 @@
           <t>Reynolds 법칙</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2715,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -2618,10 +2726,12 @@
           <t>Newton 법칙</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2756,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -2657,10 +2767,12 @@
           <t>Fourier 법칙</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr"/>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2797,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -2696,10 +2808,12 @@
           <t>난류 유동에 관련된다.</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2838,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -2735,10 +2849,12 @@
           <t>전단응력과 밀접한 관련이 있다.</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr"/>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2763,7 +2879,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F60" t="n">
@@ -2774,10 +2890,12 @@
           <t>벽면에서는 0 이다.</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2802,7 +2920,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F61" t="n">
@@ -2813,10 +2931,12 @@
           <t>항상 일정한 값을 갖는다.</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr"/>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2961,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F62" t="n">
@@ -2852,10 +2972,12 @@
           <t>8.64</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2880,7 +3002,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F63" t="n">
@@ -2891,10 +3013,12 @@
           <t>9.33</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2919,7 +3043,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F64" t="n">
@@ -2930,10 +3054,12 @@
           <t>86.4</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -2958,7 +3084,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -2969,10 +3095,12 @@
           <t>93.3</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -2997,7 +3125,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3008,10 +3136,12 @@
           <t>278</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3166,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3047,10 +3177,12 @@
           <t>364</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3075,7 +3207,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3086,10 +3218,12 @@
           <t>512</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3114,7 +3248,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F69" t="n">
@@ -3125,10 +3259,12 @@
           <t>686</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3289,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F70" t="n">
@@ -3164,10 +3300,12 @@
           <t>kg</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3192,7 +3330,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F71" t="n">
@@ -3203,10 +3341,12 @@
           <t>m</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3231,7 +3371,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F72" t="n">
@@ -3242,10 +3382,12 @@
           <t>W</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr"/>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -3270,7 +3412,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -3281,10 +3423,12 @@
           <t>K</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3453,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3320,10 +3464,12 @@
           <t>0.628 m3/s</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr"/>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -3348,7 +3494,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3359,10 +3505,12 @@
           <t>6.280 m3/s</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3535,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3398,10 +3546,12 @@
           <t>2.512 m3/s</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3576,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -3437,10 +3587,12 @@
           <t>0.251 m3/s</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr"/>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3465,7 +3617,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -3476,10 +3628,12 @@
           <t>확산연소</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3504,7 +3658,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -3515,10 +3669,12 @@
           <t>예혼합연소</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr"/>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -3543,7 +3699,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -3554,10 +3710,12 @@
           <t>증발연소</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>2</v>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3582,7 +3740,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F81" t="n">
@@ -3593,10 +3751,12 @@
           <t>분해연소</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr"/>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3781,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F82" t="n">
@@ -3632,10 +3792,12 @@
           <t>확산연소, 증발연소</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr"/>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3660,7 +3822,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F83" t="n">
@@ -3671,10 +3833,12 @@
           <t>예혼합연소, 증발연소</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr"/>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3699,7 +3863,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F84" t="n">
@@ -3710,10 +3874,12 @@
           <t>예혼합연소, 확산연소</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr"/>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3904,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F85" t="n">
@@ -3749,10 +3915,12 @@
           <t>예혼합연소, 분해연소</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3945,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F86" t="n">
@@ -3788,10 +3956,12 @@
           <t>1735</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3986,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F87" t="n">
@@ -3827,10 +3997,12 @@
           <t>1856</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -3855,7 +4027,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -3866,10 +4038,12 @@
           <t>1919</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3894,7 +4068,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F89" t="n">
@@ -3905,10 +4079,12 @@
           <t>2083</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3933,7 +4109,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F90" t="n">
@@ -3944,10 +4120,12 @@
           <t>조작이 용이하다.</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -3972,7 +4150,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F91" t="n">
@@ -3983,10 +4161,12 @@
           <t>연소 부하율이 크다.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -4011,7 +4191,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F92" t="n">
@@ -4022,10 +4202,12 @@
           <t>역화의 위험성이 적다.</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4232,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F93" t="n">
@@ -4061,10 +4243,12 @@
           <t>화염의 안정범위가 넓다.</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4273,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F94" t="n">
@@ -4100,10 +4284,12 @@
           <t>연소실 온도가 낮아진다.</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr"/>
+      <c r="H94" t="n">
+        <v>4</v>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4128,7 +4314,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F95" t="n">
@@ -4139,10 +4325,12 @@
           <t>배기가스에 의한 열손실이 커진다.</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4167,7 +4355,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F96" t="n">
@@ -4178,10 +4366,12 @@
           <t>연소가스 중의 질소산화물이 증가한다.</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr"/>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4396,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F97" t="n">
@@ -4217,10 +4407,12 @@
           <t>불완전연소에 의한 매연의 발생이 증가한다.</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr"/>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4437,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -4256,10 +4448,12 @@
           <t>결함수 분석법(FTA)</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4478,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -4295,10 +4489,12 @@
           <t>사건수 분석법(ETA)</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4323,7 +4519,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -4334,10 +4530,12 @@
           <t>위험과 운전 분석법(HAZOP)</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr"/>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4362,7 +4560,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -4373,10 +4571,12 @@
           <t>작업자 실수 분석법(HEA)</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr"/>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4601,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -4412,10 +4612,12 @@
           <t>환기장치는 공동 집진기를 사용한다.</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr"/>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -4440,7 +4642,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F103" t="n">
@@ -4451,10 +4653,12 @@
           <t>분진이 발생하는 곳에 습식 스크러버를 설치한다.</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr"/>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4479,7 +4683,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F104" t="n">
@@ -4490,10 +4694,12 @@
           <t>분진 취급 공정을 습식으로 운영한다.</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4518,7 +4724,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F105" t="n">
@@ -4529,10 +4735,12 @@
           <t>정기적으로 분진 퇴적물을 제거한다.</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4765,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -4568,10 +4776,12 @@
           <t>혼합기체의 온도는 일정하다.</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4806,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -4607,10 +4817,12 @@
           <t>혼합기체의 체적은 각 성분의 체적의 합과 같다.</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4847,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -4646,10 +4858,12 @@
           <t>혼합기체의 기체상수는 각 성분의 기체상수의 합과 같다.</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4674,7 +4888,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -4685,10 +4899,12 @@
           <t>혼합기체의 압력은 각 성분(기체)의 분압의 합과 같다.</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4929,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -4724,10 +4940,12 @@
           <t>아세틸렌</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -4752,7 +4970,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -4763,10 +4981,12 @@
           <t>메틸알코올</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4791,7 +5011,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F112" t="n">
@@ -4802,10 +5022,12 @@
           <t>톨루엔</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4830,7 +5052,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F113" t="n">
@@ -4841,10 +5063,12 @@
           <t>등유</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4869,7 +5093,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F114" t="n">
@@ -4880,10 +5104,12 @@
           <t>10</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr"/>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4908,7 +5134,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F115" t="n">
@@ -4919,10 +5145,12 @@
           <t>15</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4947,7 +5175,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F116" t="n">
@@ -4958,10 +5186,12 @@
           <t>20</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr"/>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -4986,7 +5216,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F117" t="n">
@@ -4997,10 +5227,12 @@
           <t>25</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -5025,7 +5257,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F118" t="n">
@@ -5036,10 +5268,12 @@
           <t>외부로부터 에너지원을 공급받지 않고 영구히 일을 할 수 있는 기관</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -5064,7 +5298,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F119" t="n">
@@ -5075,10 +5309,12 @@
           <t>공급된 에너지보다 더 많은 에너지를 낼 수 있는 기관</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5339,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F120" t="n">
@@ -5114,10 +5350,12 @@
           <t>지금까지 개발된 기관 중에서 효율이 가장 좋은 기관</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5142,7 +5380,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F121" t="n">
@@ -5153,10 +5391,12 @@
           <t>열역학 제2법칙에 위배되는 기관</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5181,7 +5421,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F122" t="n">
@@ -5192,10 +5432,12 @@
           <t>87</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>2</v>
+      </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5220,7 +5462,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F123" t="n">
@@ -5231,10 +5473,12 @@
           <t>91</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -5259,7 +5503,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F124" t="n">
@@ -5270,10 +5514,12 @@
           <t>93</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5298,7 +5544,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F125" t="n">
@@ -5309,10 +5555,12 @@
           <t>96</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5585,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -5348,10 +5596,12 @@
           <t>난류 예혼합화염의 연소속도는 층류 예혼합화염의 수배 내지 수십배에 달한다.</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5626,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F127" t="n">
@@ -5387,10 +5637,12 @@
           <t>난류 예혼합화염의 두께는 수 밀리미터에서 수십 밀리미터에 달하는 경우가 있다.</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5415,7 +5667,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F128" t="n">
@@ -5426,10 +5678,12 @@
           <t>난류 예혼합화염은 층류 예혼합화염에 비하여 화염의 휘도가 낮다.</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -5454,7 +5708,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F129" t="n">
@@ -5465,10 +5719,12 @@
           <t>난류 예혼합화염의 경우 그 배후에 다량의 미연소분이 잔존한다.</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr"/>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5749,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F130" t="n">
@@ -5504,10 +5760,12 @@
           <t>점화원이 있는 조건하에서 점화되어 연소를 시작하는 것이다.</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5532,7 +5790,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F131" t="n">
@@ -5543,10 +5801,12 @@
           <t>물체가 착화원 없이 불이 붙어 연소하는 것을 말한다.</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr"/>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -5571,7 +5831,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F132" t="n">
@@ -5582,10 +5842,12 @@
           <t>연소를 시작하는 가장 낮은 온도를 인화점(flash point)이라 한다.</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr"/>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5610,7 +5872,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F133" t="n">
@@ -5621,10 +5883,12 @@
           <t>인화점은 공기 중에서 가연성 액체의 액면 가까이 생기는 가연성 증기가 작은 불꽃에 의하여 연소될 때의 가연성 물체의 최저 온도이다.</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr"/>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5913,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F134" t="n">
@@ -5660,10 +5924,12 @@
           <t>공기팽창에 의한 피해</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr"/>
+      <c r="H134" t="n">
+        <v>2</v>
+      </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5688,7 +5954,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F135" t="n">
@@ -5699,10 +5965,12 @@
           <t>탱크파열에 의한 피해</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr"/>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -5727,7 +5995,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -5738,10 +6006,12 @@
           <t>폭풍압에 의한 피해</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr"/>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5766,7 +6036,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -5777,10 +6047,12 @@
           <t>복사열에 의한 피해</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr"/>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5805,7 +6077,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -5816,10 +6088,12 @@
           <t>㉮, ㉯</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr"/>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5844,7 +6118,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -5855,10 +6129,12 @@
           <t>㉰, ㉲</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>3</v>
+      </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5883,7 +6159,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -5894,10 +6170,12 @@
           <t>㉱, ㉳</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr"/>
+      <c r="H140" t="n">
+        <v>3</v>
+      </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -5922,7 +6200,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F141" t="n">
@@ -5933,10 +6211,12 @@
           <t>㉲, ㉳</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr"/>
+      <c r="H141" t="n">
+        <v>3</v>
+      </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -5961,7 +6241,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F142" t="n">
@@ -5972,10 +6252,12 @@
           <t>3 vol%</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6282,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -6011,10 +6293,12 @@
           <t>4 vol%</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>2</v>
+      </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -6039,7 +6323,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -6050,10 +6334,12 @@
           <t>5 vol%</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>2</v>
+      </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6078,7 +6364,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -6089,10 +6375,12 @@
           <t>6 vol%</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>2</v>
+      </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6117,7 +6405,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -6128,10 +6416,12 @@
           <t>A</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6446,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -6167,10 +6457,12 @@
           <t>B</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>3</v>
+      </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6195,7 +6487,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -6206,10 +6498,12 @@
           <t>C</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>3</v>
+      </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -6234,7 +6528,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -6245,10 +6539,12 @@
           <t>D</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6569,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -6284,10 +6580,12 @@
           <t>0.28</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>3</v>
+      </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6610,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F151" t="n">
@@ -6323,10 +6621,12 @@
           <t>0.47</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6351,7 +6651,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F152" t="n">
@@ -6362,10 +6662,12 @@
           <t>1.59</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -6390,7 +6692,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -6401,10 +6703,12 @@
           <t>2.38</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6429,7 +6733,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F154" t="n">
@@ -6440,10 +6744,12 @@
           <t>가동날개식</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6468,7 +6774,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F155" t="n">
@@ -6479,10 +6785,12 @@
           <t>루트식</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6815,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F156" t="n">
@@ -6518,10 +6826,12 @@
           <t>플런저식</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>2</v>
+      </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6856,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F157" t="n">
@@ -6557,10 +6867,12 @@
           <t>나사식</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>2</v>
+      </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6897,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F158" t="n">
@@ -6596,10 +6908,12 @@
           <t>암모니아 합성의 원료로 사용된다.</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6624,7 +6938,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -6635,10 +6949,12 @@
           <t>열전달율이 적고 열에 불안정하다.</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>2</v>
+      </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -6663,7 +6979,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -6674,10 +6990,12 @@
           <t>염소와의 혼합 기체에 일광을 쬐면 폭발한다.</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6702,7 +7020,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -6713,10 +7031,12 @@
           <t>모든 가스 중 가장 가벼워 확산속도도 가장 빠르다.</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>2</v>
+      </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6741,7 +7061,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -6752,10 +7072,12 @@
           <t>조정기의 개수가 적어도 된다.</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -6780,7 +7102,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -6791,10 +7113,12 @@
           <t>연소기구에 적합한 압력으로 공급할 수 있다.</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6819,7 +7143,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -6830,10 +7154,12 @@
           <t>배관의 관경을 비교적 작게 할 수 있다.</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6858,7 +7184,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -6869,10 +7195,12 @@
           <t>입상배관에 의한 압력강하를 보정할 수 있다.</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6897,7 +7225,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -6908,10 +7236,12 @@
           <t>6.6</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6936,7 +7266,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -6947,10 +7277,12 @@
           <t>8.6</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -6975,7 +7307,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -6986,10 +7318,12 @@
           <t>10.6</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -7014,7 +7348,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -7025,10 +7359,12 @@
           <t>12.6</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7389,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -7064,10 +7400,12 @@
           <t>올센법</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -7092,7 +7430,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -7103,10 +7441,12 @@
           <t>샤르피법</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7471,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -7142,10 +7482,12 @@
           <t>아이조드법</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7170,7 +7512,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F173" t="n">
@@ -7181,10 +7523,12 @@
           <t>파우더법</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7553,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F174" t="n">
@@ -7220,10 +7564,12 @@
           <t>0.2 MPa·g</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>2</v>
+      </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7248,7 +7594,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F175" t="n">
@@ -7259,10 +7605,12 @@
           <t>0.3 MPa·g</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -7287,7 +7635,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F176" t="n">
@@ -7298,10 +7646,12 @@
           <t>0.5 MPa·g</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7676,7 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F177" t="n">
@@ -7337,10 +7687,12 @@
           <t>0.75 MPa·g</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr"/>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7717,7 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F178" t="n">
@@ -7376,10 +7728,12 @@
           <t>아세틸렌-수소-일산화탄소-산화에틸렌</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr"/>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7404,7 +7758,7 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F179" t="n">
@@ -7415,10 +7769,12 @@
           <t>아세탈렌-산화에틸렌-수소-일산화탄소</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7799,7 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F180" t="n">
@@ -7454,10 +7810,12 @@
           <t>아세틸렌-수소-산화에틸렌-일산화탄소</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>2</v>
+      </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7482,7 +7840,7 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F181" t="n">
@@ -7493,10 +7851,12 @@
           <t>아세릴렌-일산화탄소-수소-산화에틸렌</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>2</v>
+      </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7881,7 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F182" t="n">
@@ -7532,10 +7892,12 @@
           <t>반응 온도를 낮게 반응 압력을 높게 한다.</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -7560,7 +7922,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F183" t="n">
@@ -7571,10 +7933,12 @@
           <t>반응 온도를 높게 반응 압력을 낮게 한다.</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7599,7 +7963,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F184" t="n">
@@ -7610,10 +7974,12 @@
           <t>반응 온도와 반응 압력을 모두 낮게 한다.</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7638,7 +8004,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F185" t="n">
@@ -7649,10 +8015,12 @@
           <t>반응 온도와 반응 압력을 모두 높게 한다.</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>1</v>
+      </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7677,7 +8045,7 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F186" t="n">
@@ -7688,10 +8056,12 @@
           <t>용적형이다.</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7716,7 +8086,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F187" t="n">
@@ -7727,10 +8097,12 @@
           <t>압축효율이 높다.</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>4</v>
+      </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7755,7 +8127,7 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F188" t="n">
@@ -7766,10 +8138,12 @@
           <t>용량조정의 범위가 넓다.</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr"/>
+      <c r="H188" t="n">
+        <v>4</v>
+      </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7794,7 +8168,7 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F189" t="n">
@@ -7805,10 +8179,12 @@
           <t>점검이 쉽고 설치면적이 적다.</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>4</v>
+      </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -7833,7 +8209,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F190" t="n">
@@ -7844,10 +8220,12 @@
           <t>㉠</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>3</v>
+      </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7872,7 +8250,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F191" t="n">
@@ -7883,10 +8261,12 @@
           <t>㉠, ㉡</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>3</v>
+      </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7911,7 +8291,7 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F192" t="n">
@@ -7922,10 +8302,12 @@
           <t>㉡, ㉢</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>3</v>
+      </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -7950,7 +8332,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F193" t="n">
@@ -7961,10 +8343,12 @@
           <t>㉠, ㉡, ㉢</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -7989,7 +8373,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F194" t="n">
@@ -8000,10 +8384,12 @@
           <t>설계압력(MPa)과 내용적(m3)을 곱한 수치가 0.05인 용기</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -8028,7 +8414,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F195" t="n">
@@ -8039,10 +8425,12 @@
           <t>완충기 및 완충장치에 속하는 용기가 자동차에어백용 가스충전용기</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8067,7 +8455,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F196" t="n">
@@ -8078,10 +8466,12 @@
           <t>압력에 관계없이 안지름, 폭, 길이 또는 단면의 지름이 100mm인 용기</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8496,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F197" t="n">
@@ -8117,10 +8507,12 @@
           <t>펌프, 압축장치 및 축압기의 본체와 그 본체와 분리되지 아니하는 일체형 용기</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>1</v>
+      </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8145,7 +8537,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F198" t="n">
@@ -8156,10 +8548,12 @@
           <t>THT(Tetra Hydro Thiophene)</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>4</v>
+      </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8184,7 +8578,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F199" t="n">
@@ -8195,10 +8589,12 @@
           <t>TBM(Tertiary Butyl Mercaptan)</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8223,7 +8619,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F200" t="n">
@@ -8234,10 +8630,12 @@
           <t>DMS(Dimethyl Sulfide)</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>4</v>
+      </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8262,7 +8660,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F201" t="n">
@@ -8273,10 +8671,12 @@
           <t>DMDS(Dimethyl Disulfide)</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr"/>
+      <c r="H201" t="n">
+        <v>4</v>
+      </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8701,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F202" t="n">
@@ -8312,10 +8712,12 @@
           <t>전자유도탐사법</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8742,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F203" t="n">
@@ -8351,10 +8753,12 @@
           <t>레이다탐사법</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr"/>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8379,7 +8783,7 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F204" t="n">
@@ -8390,10 +8794,12 @@
           <t>음파탐사법</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr"/>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8418,7 +8824,7 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F205" t="n">
@@ -8429,10 +8835,12 @@
           <t>전기탐사법</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr"/>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8865,7 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F206" t="n">
@@ -8468,10 +8876,12 @@
           <t>압축가스</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr"/>
+      <c r="H206" t="n">
+        <v>4</v>
+      </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8906,7 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F207" t="n">
@@ -8507,10 +8917,12 @@
           <t>용해가스</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr"/>
+      <c r="H207" t="n">
+        <v>4</v>
+      </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8535,7 +8947,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F208" t="n">
@@ -8546,10 +8958,12 @@
           <t>액화가스</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr"/>
+      <c r="H208" t="n">
+        <v>4</v>
+      </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8574,7 +8988,7 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F209" t="n">
@@ -8585,10 +8999,12 @@
           <t>혼합가스</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr"/>
+      <c r="H209" t="n">
+        <v>4</v>
+      </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -8613,7 +9029,7 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F210" t="n">
@@ -8624,10 +9040,12 @@
           <t>잔액이 거의 없어질 때까지 소비된다.</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>2</v>
+      </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8652,7 +9070,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F211" t="n">
@@ -8663,10 +9081,12 @@
           <t>용기교환주기의 폭을 좁힐 수 있어, 가스발생량이 적어진다.</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr"/>
+      <c r="H211" t="n">
+        <v>2</v>
+      </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -8691,7 +9111,7 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F212" t="n">
@@ -8702,10 +9122,12 @@
           <t>전체 용기 수량이 수동교체식의 경우보다 적어도 된다.</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>2</v>
+      </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8730,7 +9152,7 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F213" t="n">
@@ -8741,10 +9163,12 @@
           <t>가스소비시의 압력변동이 적다.</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>2</v>
+      </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8769,7 +9193,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F214" t="n">
@@ -8780,10 +9204,12 @@
           <t>CO2, SO2</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr"/>
+      <c r="H214" t="n">
+        <v>2</v>
+      </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8808,7 +9234,7 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F215" t="n">
@@ -8819,10 +9245,12 @@
           <t>H2S, PH3</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>2</v>
+      </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -8847,7 +9275,7 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F216" t="n">
@@ -8858,10 +9286,12 @@
           <t>H2O, SiH4</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>2</v>
+      </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8886,7 +9316,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F217" t="n">
@@ -8897,10 +9327,12 @@
           <t>NH3, COCl2</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>2</v>
+      </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -8925,7 +9357,7 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F218" t="n">
@@ -8936,10 +9368,12 @@
           <t>황은 적열취성이 원인이 된다.</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -8964,7 +9398,7 @@
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F219" t="n">
@@ -8975,10 +9409,12 @@
           <t>인(P)은 될수록 많은 것이 좋다.</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9003,7 +9439,7 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F220" t="n">
@@ -9014,10 +9450,12 @@
           <t>탄소량은 증가하면 인장강도와 충격치가 감소한다.</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9042,7 +9480,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F221" t="n">
@@ -9053,10 +9491,12 @@
           <t>탄소량이 많으면 인장강도는 감소하고 충격치는 증가한다.</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9521,7 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F222" t="n">
@@ -9092,10 +9532,12 @@
           <t>300 L</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>4</v>
+      </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9120,7 +9562,7 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F223" t="n">
@@ -9131,10 +9573,12 @@
           <t>750 L</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>4</v>
+      </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9159,7 +9603,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -9170,10 +9614,12 @@
           <t>1500 L</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr"/>
+      <c r="H224" t="n">
+        <v>4</v>
+      </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9198,7 +9644,7 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F225" t="n">
@@ -9209,10 +9655,12 @@
           <t>3800 L</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>4</v>
+      </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9685,7 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F226" t="n">
@@ -9248,10 +9696,12 @@
           <t>LNG를 지하시설에 저장하는 기술 및 설비</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr"/>
+      <c r="H226" t="n">
+        <v>4</v>
+      </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9726,7 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F227" t="n">
@@ -9287,10 +9737,12 @@
           <t>LNG 운반선에서 LNG인수기지로 급유하는 기술 및 설비</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr"/>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9315,7 +9767,7 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F228" t="n">
@@ -9326,10 +9778,12 @@
           <t>LNG 인수기지에서 가스홀더로 이송하는 기술 및 설비</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr"/>
+      <c r="H228" t="n">
+        <v>4</v>
+      </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9354,7 +9808,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F229" t="n">
@@ -9365,10 +9819,12 @@
           <t>LNG를 해상 선박에 급유하는 기술 및 설비</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr"/>
+      <c r="H229" t="n">
+        <v>4</v>
+      </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -9393,7 +9849,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F230" t="n">
@@ -9404,10 +9860,12 @@
           <t>0.5</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr"/>
+      <c r="H230" t="n">
+        <v>3</v>
+      </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9432,7 +9890,7 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F231" t="n">
@@ -9443,10 +9901,12 @@
           <t>1배</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>3</v>
+      </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9471,7 +9931,7 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F232" t="n">
@@ -9482,10 +9942,12 @@
           <t>2배</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr"/>
+      <c r="H232" t="n">
+        <v>3</v>
+      </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -9510,7 +9972,7 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F233" t="n">
@@ -9521,10 +9983,12 @@
           <t>4배</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr"/>
+      <c r="H233" t="n">
+        <v>3</v>
+      </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9549,7 +10013,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F234" t="n">
@@ -9560,10 +10024,12 @@
           <t>염화메탄</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr"/>
+      <c r="H234" t="n">
+        <v>2</v>
+      </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9588,7 +10054,7 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F235" t="n">
@@ -9599,10 +10065,12 @@
           <t>산화프로필렌</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>2</v>
+      </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -9627,7 +10095,7 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F236" t="n">
@@ -9638,10 +10106,12 @@
           <t>벤젠</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr"/>
+      <c r="H236" t="n">
+        <v>2</v>
+      </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9666,7 +10136,7 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F237" t="n">
@@ -9677,10 +10147,12 @@
           <t>시안화수소</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr"/>
+      <c r="H237" t="n">
+        <v>2</v>
+      </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9705,7 +10177,7 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F238" t="n">
@@ -9716,10 +10188,12 @@
           <t>방독마스크</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr"/>
+      <c r="H238" t="n">
+        <v>2</v>
+      </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9744,7 +10218,7 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F239" t="n">
@@ -9755,10 +10229,12 @@
           <t>공기호흡기</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr"/>
+      <c r="H239" t="n">
+        <v>2</v>
+      </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -9783,7 +10259,7 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F240" t="n">
@@ -9794,10 +10270,12 @@
           <t>보호의</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>2</v>
+      </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9822,7 +10300,7 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F241" t="n">
@@ -9833,10 +10311,12 @@
           <t>보호장갑</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr"/>
+      <c r="H241" t="n">
+        <v>2</v>
+      </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9861,7 +10341,7 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F242" t="n">
@@ -9872,10 +10352,12 @@
           <t>저장탱크 주위 빈 공간에는 세립분을 포함한 마른모래를 채운다.</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr"/>
+      <c r="H242" t="n">
+        <v>1</v>
+      </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -9900,7 +10382,7 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F243" t="n">
@@ -9911,10 +10393,12 @@
           <t>저장탱크를 2개 이상 인접하여 설치하는 경우에는 상호간에 1m 이상의 거리를 유지한다.</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>1</v>
+      </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9939,7 +10423,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F244" t="n">
@@ -9950,10 +10434,12 @@
           <t>점검구는 저장능력이 20톤 초과인 경우에는 2개소로 한다.</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr"/>
+      <c r="H244" t="n">
+        <v>1</v>
+      </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -9978,7 +10464,7 @@
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F245" t="n">
@@ -9989,10 +10475,12 @@
           <t>검지관은 직경 40A 이상으로 4개소 이상 설치한다.</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr"/>
+      <c r="H245" t="n">
+        <v>1</v>
+      </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10505,7 @@
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F246" t="n">
@@ -10028,10 +10516,12 @@
           <t>30 mL/h</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr"/>
+      <c r="H246" t="n">
+        <v>3</v>
+      </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10546,7 @@
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F247" t="n">
@@ -10067,10 +10557,12 @@
           <t>50 mL/h</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>3</v>
+      </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10095,7 +10587,7 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F248" t="n">
@@ -10106,10 +10598,12 @@
           <t>70 mL/h</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr"/>
+      <c r="H248" t="n">
+        <v>3</v>
+      </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -10134,7 +10628,7 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F249" t="n">
@@ -10145,10 +10639,12 @@
           <t>90 mL/h</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr"/>
+      <c r="H249" t="n">
+        <v>3</v>
+      </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10173,7 +10669,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F250" t="n">
@@ -10184,10 +10680,12 @@
           <t>온도감시장치</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr"/>
+      <c r="H250" t="n">
+        <v>4</v>
+      </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10212,7 +10710,7 @@
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F251" t="n">
@@ -10223,10 +10721,12 @@
           <t>압력감시장치</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr"/>
+      <c r="H251" t="n">
+        <v>4</v>
+      </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10251,7 +10751,7 @@
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F252" t="n">
@@ -10262,10 +10762,12 @@
           <t>유량감시장치</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr"/>
+      <c r="H252" t="n">
+        <v>4</v>
+      </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10290,7 +10792,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F253" t="n">
@@ -10301,10 +10803,12 @@
           <t>농도감시장치</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr"/>
+      <c r="H253" t="n">
+        <v>4</v>
+      </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10833,7 @@
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F254" t="n">
@@ -10340,10 +10844,12 @@
           <t>비드</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr"/>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -10368,7 +10874,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F255" t="n">
@@ -10379,10 +10885,12 @@
           <t>후프링</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr"/>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10407,7 +10915,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F256" t="n">
@@ -10418,10 +10926,12 @@
           <t>방파판</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr"/>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10956,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F257" t="n">
@@ -10457,10 +10967,12 @@
           <t>다공성 알루미늄 박판</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr"/>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10485,7 +10997,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F258" t="n">
@@ -10496,10 +11008,12 @@
           <t>정압기지에서 대량수요자의 가스사용시설까지 이르는 배관</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr"/>
+      <c r="H258" t="n">
+        <v>1</v>
+      </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -10524,7 +11038,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F259" t="n">
@@ -10535,10 +11049,12 @@
           <t>인수기지 부지경계에서 정압기까지 이르는 배관</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr"/>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10563,7 +11079,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F260" t="n">
@@ -10574,10 +11090,12 @@
           <t>인수가지 내에 설치되어 있는 배관</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr"/>
+      <c r="H260" t="n">
+        <v>1</v>
+      </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10602,7 +11120,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F261" t="n">
@@ -10613,10 +11131,12 @@
           <t>대량수요자 부지 내에 설치된 배관</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr"/>
+      <c r="H261" t="n">
+        <v>1</v>
+      </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10641,7 +11161,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F262" t="n">
@@ -10652,10 +11172,12 @@
           <t>2mm</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr"/>
+      <c r="H262" t="n">
+        <v>2</v>
+      </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10680,7 +11202,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F263" t="n">
@@ -10691,10 +11213,12 @@
           <t>3mm</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr"/>
+      <c r="H263" t="n">
+        <v>2</v>
+      </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -10719,7 +11243,7 @@
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F264" t="n">
@@ -10730,10 +11254,12 @@
           <t>3.6mm</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr"/>
+      <c r="H264" t="n">
+        <v>2</v>
+      </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10758,7 +11284,7 @@
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F265" t="n">
@@ -10769,10 +11295,12 @@
           <t>5mm</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr"/>
+      <c r="H265" t="n">
+        <v>2</v>
+      </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10797,7 +11325,7 @@
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F266" t="n">
@@ -10808,10 +11336,12 @@
           <t>상용의 상태에서 가연성가스의 농도가 연속해서 폭발 하한계 이상으로 되는 장소</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr"/>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -10836,7 +11366,7 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F267" t="n">
@@ -10847,10 +11377,12 @@
           <t>밀폐된 용기가 그 용기의 사고로 인해 파손될 경우에만 가스가 누출할 위험이 있는 장소</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr"/>
+      <c r="H267" t="n">
+        <v>1</v>
+      </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10875,7 +11407,7 @@
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F268" t="n">
@@ -10886,10 +11418,12 @@
           <t>환기장치에 이상이나 사고가 발생한 경우에 가연성가스가 체류하여 위험하게 될 우려가 있는 장소</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr"/>
+      <c r="H268" t="n">
+        <v>1</v>
+      </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10914,7 +11448,7 @@
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F269" t="n">
@@ -10925,10 +11459,12 @@
           <t>1종 장소의 주변에서 위험한 농도의 가연성가스가 종종 침입할 우려가 있는 장소</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr"/>
+      <c r="H269" t="n">
+        <v>1</v>
+      </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10953,7 +11489,7 @@
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F270" t="n">
@@ -10964,10 +11500,12 @@
           <t>펌프 주변 1개 이상</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr"/>
+      <c r="H270" t="n">
+        <v>2</v>
+      </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -10992,7 +11530,7 @@
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F271" t="n">
@@ -11003,10 +11541,12 @@
           <t>압축가스 설비 주변에 1개</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr"/>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -11031,7 +11571,7 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F272" t="n">
@@ -11042,10 +11582,12 @@
           <t>충전설비 내부에 1개 이상</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr"/>
+      <c r="H272" t="n">
+        <v>2</v>
+      </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11070,7 +11612,7 @@
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F273" t="n">
@@ -11081,10 +11623,12 @@
           <t>배관접속부마다 10m 이내에 1개</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr"/>
+      <c r="H273" t="n">
+        <v>2</v>
+      </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11109,7 +11653,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F274" t="n">
@@ -11120,10 +11664,12 @@
           <t>암모니아</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr"/>
+      <c r="H274" t="n">
+        <v>1</v>
+      </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -11148,7 +11694,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F275" t="n">
@@ -11159,10 +11705,12 @@
           <t>아세틸렌</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr"/>
+      <c r="H275" t="n">
+        <v>1</v>
+      </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11187,7 +11735,7 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F276" t="n">
@@ -11198,10 +11746,12 @@
           <t>염화에탄</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="n">
+        <v>1</v>
+      </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11776,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F277" t="n">
@@ -11237,10 +11787,12 @@
           <t>아크릴알데히드</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr"/>
+      <c r="H277" t="n">
+        <v>1</v>
+      </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11817,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F278" t="n">
@@ -11276,10 +11828,12 @@
           <t>설계압력이 2.5 MPa 인 특정설비</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr"/>
+      <c r="H278" t="n">
+        <v>4</v>
+      </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11304,7 +11858,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F279" t="n">
@@ -11315,10 +11869,12 @@
           <t>설계압력이 3.0 MPa 인 특정설비</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr"/>
+      <c r="H279" t="n">
+        <v>4</v>
+      </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11343,7 +11899,7 @@
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F280" t="n">
@@ -11354,10 +11910,12 @@
           <t>설계압력이 2.0 MPa 이고 플랜지의 호칭 내경이 260 mm 특정설비</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr"/>
+      <c r="H280" t="n">
+        <v>4</v>
+      </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11940,7 @@
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F281" t="n">
@@ -11393,10 +11951,12 @@
           <t>설계압력이 1.0 MPa 이고 플랜지의 호칭 내경이 300 mm 특정설비</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr"/>
+      <c r="H281" t="n">
+        <v>4</v>
+      </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11981,7 @@
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F282" t="n">
@@ -11432,10 +11992,12 @@
           <t>표면적 1m2당 2.5L/분 이상</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr"/>
+      <c r="H282" t="n">
+        <v>1</v>
+      </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -11460,7 +12022,7 @@
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F283" t="n">
@@ -11471,10 +12033,12 @@
           <t>표면적 1m2당 3.5L/분 이상</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr"/>
+      <c r="H283" t="n">
+        <v>1</v>
+      </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11499,7 +12063,7 @@
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F284" t="n">
@@ -11510,10 +12074,12 @@
           <t>표면적 1m2당 5L/분 이상</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr"/>
+      <c r="H284" t="n">
+        <v>1</v>
+      </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11538,7 +12104,7 @@
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F285" t="n">
@@ -11549,10 +12115,12 @@
           <t>표면적 1m2당 8L/분 이상</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr"/>
+      <c r="H285" t="n">
+        <v>1</v>
+      </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11577,7 +12145,7 @@
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F286" t="n">
@@ -11588,10 +12156,12 @@
           <t>안전밸브는 그 일부가 파손되었을 때 분출되지 않는 구조로 한다.</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr"/>
+      <c r="H286" t="n">
+        <v>1</v>
+      </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -11616,7 +12186,7 @@
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F287" t="n">
@@ -11627,10 +12197,12 @@
           <t>스프링의 조정나사는 자유로이 헐거워지지 않는 구조로 한다.</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr"/>
+      <c r="H287" t="n">
+        <v>1</v>
+      </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11655,7 +12227,7 @@
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F288" t="n">
@@ -11666,10 +12238,12 @@
           <t>안전밸브는 압력을 마음대로 조정할 수 없도록 봉인할 수 있는 구조로 한다.</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr"/>
+      <c r="H288" t="n">
+        <v>1</v>
+      </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11694,7 +12268,7 @@
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F289" t="n">
@@ -11705,10 +12279,12 @@
           <t>가연성 또는 독성가스용의 안전밸브는 개방형을 사용하지 않는다.</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr"/>
+      <c r="H289" t="n">
+        <v>1</v>
+      </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11733,7 +12309,7 @@
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F290" t="n">
@@ -11744,10 +12320,12 @@
           <t>가연성가스 용기는 빨간색 테두리에 검정색 불꽃모양으로 표시한다.</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr"/>
+      <c r="H290" t="n">
+        <v>4</v>
+      </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11772,7 +12350,7 @@
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F291" t="n">
@@ -11783,10 +12361,12 @@
           <t>내용적 2L 미만의 용기는 제조자가 정하는 바에 의한다.</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr"/>
+      <c r="H291" t="n">
+        <v>4</v>
+      </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11811,7 +12391,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F292" t="n">
@@ -11822,10 +12402,12 @@
           <t>독성가스 용기는 빨간색 테두리에 검정색 해골모양으로 표시한다.</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr"/>
+      <c r="H292" t="n">
+        <v>4</v>
+      </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11850,7 +12432,7 @@
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F293" t="n">
@@ -11861,10 +12443,12 @@
           <t>선박용 LPG 용기는 용기의 하단부에 2cm의 백색 띠를 한 줄로 표시한다.</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr"/>
+      <c r="H293" t="n">
+        <v>4</v>
+      </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -11889,7 +12473,7 @@
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F294" t="n">
@@ -11900,10 +12484,12 @@
           <t>2000 kcal/m2·h</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr"/>
+      <c r="H294" t="n">
+        <v>3</v>
+      </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11928,7 +12514,7 @@
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F295" t="n">
@@ -11939,10 +12525,12 @@
           <t>3000 kcal/m2·h</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr"/>
+      <c r="H295" t="n">
+        <v>3</v>
+      </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -11967,7 +12555,7 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F296" t="n">
@@ -11978,10 +12566,12 @@
           <t>4000 kcal/m2·h</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr"/>
+      <c r="H296" t="n">
+        <v>3</v>
+      </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12596,7 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F297" t="n">
@@ -12017,10 +12607,12 @@
           <t>5000 kcal/m2·h</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr"/>
+      <c r="H297" t="n">
+        <v>3</v>
+      </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12637,7 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F298" t="n">
@@ -12056,10 +12648,12 @@
           <t>인터폰</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr"/>
+      <c r="H298" t="n">
+        <v>3</v>
+      </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12084,7 +12678,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F299" t="n">
@@ -12095,10 +12689,12 @@
           <t>페이징설비</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr"/>
+      <c r="H299" t="n">
+        <v>3</v>
+      </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12123,7 +12719,7 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F300" t="n">
@@ -12134,10 +12730,12 @@
           <t>휴대용확성기</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr"/>
+      <c r="H300" t="n">
+        <v>3</v>
+      </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -12162,7 +12760,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F301" t="n">
@@ -12173,10 +12771,12 @@
           <t>구내방송설비</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr"/>
+      <c r="H301" t="n">
+        <v>3</v>
+      </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12801,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F302" t="n">
@@ -12212,10 +12812,12 @@
           <t>강산이다.</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr"/>
+      <c r="H302" t="n">
+        <v>2</v>
+      </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12240,7 +12842,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F303" t="n">
@@ -12251,10 +12853,12 @@
           <t>황색기체이다.</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr"/>
+      <c r="H303" t="n">
+        <v>2</v>
+      </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -12279,7 +12883,7 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F304" t="n">
@@ -12290,10 +12894,12 @@
           <t>불연성기체이다.</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr"/>
+      <c r="H304" t="n">
+        <v>2</v>
+      </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12318,7 +12924,7 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F305" t="n">
@@ -12329,10 +12935,12 @@
           <t>자극적 냄새가 난다.</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr"/>
+      <c r="H305" t="n">
+        <v>2</v>
+      </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12357,7 +12965,7 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F306" t="n">
@@ -12368,10 +12976,12 @@
           <t>1000 kg 이상</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr"/>
+      <c r="H306" t="n">
+        <v>3</v>
+      </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12396,7 +13006,7 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F307" t="n">
@@ -12407,10 +13017,12 @@
           <t>3000 kg 이상</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr"/>
+      <c r="H307" t="n">
+        <v>3</v>
+      </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12435,7 +13047,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -12446,10 +13058,12 @@
           <t>6000 kg 이상</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr"/>
+      <c r="H308" t="n">
+        <v>3</v>
+      </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -12474,7 +13088,7 @@
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F309" t="n">
@@ -12485,10 +13099,12 @@
           <t>12000 kg 이상</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr"/>
+      <c r="H309" t="n">
+        <v>3</v>
+      </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12513,7 +13129,7 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F310" t="n">
@@ -12524,10 +13140,12 @@
           <t>부근의 화기를 없앤다.</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr"/>
+      <c r="H310" t="n">
+        <v>4</v>
+      </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12552,7 +13170,7 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F311" t="n">
@@ -12563,10 +13181,12 @@
           <t>독성가스가 누출된 경우에는 가스를 제독한다.</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr"/>
+      <c r="H311" t="n">
+        <v>4</v>
+      </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12591,7 +13211,7 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F312" t="n">
@@ -12602,10 +13222,12 @@
           <t>비상연락망에 따라 관계업소에 원조를 의뢰한다.</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr"/>
+      <c r="H312" t="n">
+        <v>4</v>
+      </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12630,7 +13252,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F313" t="n">
@@ -12641,10 +13263,12 @@
           <t>착화된 경우 용기파열 등의 위험이 있다고 인정될 때는 소화한다.</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr"/>
+      <c r="H313" t="n">
+        <v>4</v>
+      </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -12669,7 +13293,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F314" t="n">
@@ -12680,10 +13304,12 @@
           <t>절대단위계</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr"/>
+      <c r="H314" t="n">
+        <v>2</v>
+      </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12708,7 +13334,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F315" t="n">
@@ -12719,10 +13345,12 @@
           <t>실제단위계</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr"/>
+      <c r="H315" t="n">
+        <v>2</v>
+      </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -12747,7 +13375,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F316" t="n">
@@ -12758,10 +13386,12 @@
           <t>중력단위계</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr"/>
+      <c r="H316" t="n">
+        <v>2</v>
+      </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12786,7 +13416,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F317" t="n">
@@ -12797,10 +13427,12 @@
           <t>공학단위계</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr"/>
+      <c r="H317" t="n">
+        <v>2</v>
+      </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12825,7 +13457,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F318" t="n">
@@ -12836,10 +13468,12 @@
           <t>0.5</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr"/>
+      <c r="H318" t="n">
+        <v>3</v>
+      </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12864,7 +13498,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F319" t="n">
@@ -12875,10 +13509,12 @@
           <t>5</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr"/>
+      <c r="H319" t="n">
+        <v>3</v>
+      </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12903,7 +13539,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F320" t="n">
@@ -12914,10 +13550,12 @@
           <t>50</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr"/>
+      <c r="H320" t="n">
+        <v>3</v>
+      </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -12942,7 +13580,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F321" t="n">
@@ -12953,10 +13591,12 @@
           <t>500</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr"/>
+      <c r="H321" t="n">
+        <v>3</v>
+      </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -12981,7 +13621,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F322" t="n">
@@ -12992,10 +13632,12 @@
           <t>저항온도계</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr"/>
+      <c r="H322" t="n">
+        <v>2</v>
+      </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13020,7 +13662,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F323" t="n">
@@ -13031,10 +13673,12 @@
           <t>바이메탈온도계</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr"/>
+      <c r="H323" t="n">
+        <v>2</v>
+      </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -13059,7 +13703,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F324" t="n">
@@ -13070,10 +13714,12 @@
           <t>열전대온도계</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr"/>
+      <c r="H324" t="n">
+        <v>2</v>
+      </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13744,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F325" t="n">
@@ -13109,10 +13755,12 @@
           <t>광고온계</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr"/>
+      <c r="H325" t="n">
+        <v>2</v>
+      </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13137,7 +13785,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F326" t="n">
@@ -13148,10 +13796,12 @@
           <t>기체 온도계는 대표적인 1차 온도계이다.</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr"/>
+      <c r="H326" t="n">
+        <v>3</v>
+      </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13826,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F327" t="n">
@@ -13187,10 +13837,12 @@
           <t>접촉식의 온도계측에는 열팽창, 전기저항 변화 및 열기전력 등을 이용한다.</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr"/>
+      <c r="H327" t="n">
+        <v>3</v>
+      </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13867,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F328" t="n">
@@ -13226,10 +13878,12 @@
           <t>비접촉식 온도계는 방사온도계, 광온도계, 바이메탈 온도계 등이 있다.</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr"/>
+      <c r="H328" t="n">
+        <v>3</v>
+      </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -13254,7 +13908,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F329" t="n">
@@ -13265,10 +13919,12 @@
           <t>유리온도계는 수은을 봉입한 것과 유기성 액체를 봉입한 것 등으로 구분한다.</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr"/>
+      <c r="H329" t="n">
+        <v>3</v>
+      </c>
       <c r="I329" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13949,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F330" t="n">
@@ -13304,10 +13960,12 @@
           <t>0.791</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr"/>
+      <c r="H330" t="n">
+        <v>3</v>
+      </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13332,7 +13990,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F331" t="n">
@@ -13343,10 +14001,12 @@
           <t>0.801</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr"/>
+      <c r="H331" t="n">
+        <v>3</v>
+      </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13371,7 +14031,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -13382,10 +14042,12 @@
           <t>0.810</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr"/>
+      <c r="H332" t="n">
+        <v>3</v>
+      </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -13410,7 +14072,7 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F333" t="n">
@@ -13421,10 +14083,12 @@
           <t>0.820</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr"/>
+      <c r="H333" t="n">
+        <v>3</v>
+      </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13449,7 +14113,7 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F334" t="n">
@@ -13460,10 +14124,12 @@
           <t>연당지 - HCN</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr"/>
+      <c r="H334" t="n">
+        <v>1</v>
+      </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -13488,7 +14154,7 @@
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F335" t="n">
@@ -13499,10 +14165,12 @@
           <t>KI전분지 - NO2</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr"/>
+      <c r="H335" t="n">
+        <v>1</v>
+      </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13527,7 +14195,7 @@
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F336" t="n">
@@ -13538,10 +14206,12 @@
           <t>염화파라듐지 - CO</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr"/>
+      <c r="H336" t="n">
+        <v>1</v>
+      </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13566,7 +14236,7 @@
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F337" t="n">
@@ -13577,10 +14247,12 @@
           <t>염화제일동 착염지 – C2H2</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr"/>
+      <c r="H337" t="n">
+        <v>1</v>
+      </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13605,7 +14277,7 @@
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F338" t="n">
@@ -13616,10 +14288,12 @@
           <t>부르동관 압력계</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr"/>
+      <c r="H338" t="n">
+        <v>4</v>
+      </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13644,7 +14318,7 @@
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F339" t="n">
@@ -13655,10 +14329,12 @@
           <t>벨로우즈 압력계</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr"/>
+      <c r="H339" t="n">
+        <v>4</v>
+      </c>
       <c r="I339" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13683,7 +14359,7 @@
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F340" t="n">
@@ -13694,10 +14370,12 @@
           <t>다이어프램 압력계</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr"/>
+      <c r="H340" t="n">
+        <v>4</v>
+      </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13722,7 +14400,7 @@
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F341" t="n">
@@ -13733,10 +14411,12 @@
           <t>링밸런스식 압력계</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr"/>
+      <c r="H341" t="n">
+        <v>4</v>
+      </c>
       <c r="I341" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -13761,7 +14441,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -13772,10 +14452,12 @@
           <t>비례동작에 의한 조작신호의 변화를 적분동작만으로 일어나는데 필요한 시간을 적분시간이라고 한다.</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr"/>
+      <c r="H342" t="n">
+        <v>3</v>
+      </c>
       <c r="I342" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13800,7 +14482,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F343" t="n">
@@ -13811,10 +14493,12 @@
           <t>조작신호가 동작신호의 미분값에 비례하는 것을 레이트 동작(rate action)이라고 한다.</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr"/>
+      <c r="H343" t="n">
+        <v>3</v>
+      </c>
       <c r="I343" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13839,7 +14523,7 @@
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F344" t="n">
@@ -13850,10 +14534,12 @@
           <t>매분 당 미분동작에 의한 변화를 비례동작에 의한 변화로 나눈 값을 리셋율이라고 한다.</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr"/>
+      <c r="H344" t="n">
+        <v>3</v>
+      </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -13878,7 +14564,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F345" t="n">
@@ -13889,10 +14575,12 @@
           <t>미분동작에 의한 조작신호의 변화가 비례동작에 의한 변화와 같아질 때까지의 시간을 미분시간이라고 한다.</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr"/>
+      <c r="H345" t="n">
+        <v>3</v>
+      </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13917,7 +14605,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F346" t="n">
@@ -13928,10 +14616,12 @@
           <t>습식 가스미터는 측정이 정확하다.</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr"/>
+      <c r="H346" t="n">
+        <v>4</v>
+      </c>
       <c r="I346" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13956,7 +14646,7 @@
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F347" t="n">
@@ -13967,10 +14657,12 @@
           <t>다이어프램식 가스미터는 일반 가정용 측정에 적당하다.</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr"/>
+      <c r="H347" t="n">
+        <v>4</v>
+      </c>
       <c r="I347" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -13995,7 +14687,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F348" t="n">
@@ -14006,10 +14698,12 @@
           <t>루트미터는 회전자식으로 고속회전이 가능하다.</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr"/>
+      <c r="H348" t="n">
+        <v>4</v>
+      </c>
       <c r="I348" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14034,7 +14728,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F349" t="n">
@@ -14045,10 +14739,12 @@
           <t>오리피스미터는 압력손실이 없어 가스량 측정이 정확하다.</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr"/>
+      <c r="H349" t="n">
+        <v>4</v>
+      </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -14073,7 +14769,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F350" t="n">
@@ -14084,10 +14780,12 @@
           <t>습도가 낮은 곳에 부착한다.</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr"/>
+      <c r="H350" t="n">
+        <v>4</v>
+      </c>
       <c r="I350" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14112,7 +14810,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F351" t="n">
@@ -14123,10 +14821,12 @@
           <t>진동이 적은 장소에 설치한다.</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr"/>
+      <c r="H351" t="n">
+        <v>4</v>
+      </c>
       <c r="I351" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14151,7 +14851,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F352" t="n">
@@ -14162,10 +14862,12 @@
           <t>화기와 2m 이상 떨어진 곳에 설치한다.</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr"/>
+      <c r="H352" t="n">
+        <v>4</v>
+      </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14190,7 +14892,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F353" t="n">
@@ -14201,10 +14903,12 @@
           <t>바닥으로부터 2.5m 이상에 수직 및 수평으로 설치한다.</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr"/>
+      <c r="H353" t="n">
+        <v>4</v>
+      </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -14229,7 +14933,7 @@
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F354" t="n">
@@ -14240,10 +14944,12 @@
           <t>㉮</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr"/>
+      <c r="H354" t="n">
+        <v>1</v>
+      </c>
       <c r="I354" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -14268,7 +14974,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F355" t="n">
@@ -14279,10 +14985,12 @@
           <t>㉯</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr"/>
+      <c r="H355" t="n">
+        <v>1</v>
+      </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14307,7 +15015,7 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F356" t="n">
@@ -14318,10 +15026,12 @@
           <t>㉮, ㉯</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr"/>
+      <c r="H356" t="n">
+        <v>1</v>
+      </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14346,7 +15056,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>✅</t>
+          <t>true</t>
         </is>
       </c>
       <c r="F357" t="n">
@@ -14357,10 +15067,12 @@
           <t>모두 틀림</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr"/>
+      <c r="H357" t="n">
+        <v>1</v>
+      </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14385,7 +15097,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F358" t="n">
@@ -14396,10 +15108,12 @@
           <t>제백효과</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr"/>
+      <c r="H358" t="n">
+        <v>2</v>
+      </c>
       <c r="I358" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14424,7 +15138,7 @@
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F359" t="n">
@@ -14435,10 +15149,12 @@
           <t>틴들효과</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr"/>
+      <c r="H359" t="n">
+        <v>2</v>
+      </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -14463,7 +15179,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F360" t="n">
@@ -14474,10 +15190,12 @@
           <t>톰슨효과</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr"/>
+      <c r="H360" t="n">
+        <v>2</v>
+      </c>
       <c r="I360" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14502,7 +15220,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F361" t="n">
@@ -14513,10 +15231,12 @@
           <t>펠티에효과</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr"/>
+      <c r="H361" t="n">
+        <v>2</v>
+      </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14541,7 +15261,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F362" t="n">
@@ -14552,10 +15272,12 @@
           <t>SO2 가스계</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr"/>
+      <c r="H362" t="n">
+        <v>2</v>
+      </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14580,7 +15302,7 @@
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F363" t="n">
@@ -14591,10 +15313,12 @@
           <t>O2 가스계</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr"/>
+      <c r="H363" t="n">
+        <v>2</v>
+      </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -14619,7 +15343,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F364" t="n">
@@ -14630,10 +15354,12 @@
           <t>CO2 가스계</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr"/>
+      <c r="H364" t="n">
+        <v>2</v>
+      </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14658,7 +15384,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F365" t="n">
@@ -14669,10 +15395,12 @@
           <t>기체 크로마토그래피</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr"/>
+      <c r="H365" t="n">
+        <v>2</v>
+      </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14697,7 +15425,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F366" t="n">
@@ -14708,10 +15436,12 @@
           <t>미분동작</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr"/>
+      <c r="H366" t="n">
+        <v>2</v>
+      </c>
       <c r="I366" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14736,7 +15466,7 @@
       </c>
       <c r="E367" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F367" t="n">
@@ -14747,10 +15477,12 @@
           <t>비례동작</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr"/>
+      <c r="H367" t="n">
+        <v>2</v>
+      </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -14775,7 +15507,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F368" t="n">
@@ -14786,10 +15518,12 @@
           <t>적분동작</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr"/>
+      <c r="H368" t="n">
+        <v>2</v>
+      </c>
       <c r="I368" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14814,7 +15548,7 @@
       </c>
       <c r="E369" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F369" t="n">
@@ -14825,10 +15559,12 @@
           <t>뱅뱅동작</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr"/>
+      <c r="H369" t="n">
+        <v>2</v>
+      </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14853,7 +15589,7 @@
       </c>
       <c r="E370" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F370" t="n">
@@ -14864,10 +15600,12 @@
           <t>KOH 용액</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr"/>
+      <c r="H370" t="n">
+        <v>3</v>
+      </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14892,7 +15630,7 @@
       </c>
       <c r="E371" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F371" t="n">
@@ -14903,10 +15641,12 @@
           <t>암모니아성 CuCl2 용액</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr"/>
+      <c r="H371" t="n">
+        <v>3</v>
+      </c>
       <c r="I371" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -14931,7 +15671,7 @@
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F372" t="n">
@@ -14942,10 +15682,12 @@
           <t>알칼리성 피로갈롤 용액</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr"/>
+      <c r="H372" t="n">
+        <v>3</v>
+      </c>
       <c r="I372" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -14970,7 +15712,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F373" t="n">
@@ -14981,10 +15723,12 @@
           <t>H2SO4 산성 FeSO4 용액</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr"/>
+      <c r="H373" t="n">
+        <v>3</v>
+      </c>
       <c r="I373" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15009,7 +15753,7 @@
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F374" t="n">
@@ -15020,10 +15764,12 @@
           <t>밀도는 단위체적당 물질의 질량으로 정의한다.</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr"/>
+      <c r="H374" t="n">
+        <v>3</v>
+      </c>
       <c r="I374" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15048,7 +15794,7 @@
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F375" t="n">
@@ -15059,10 +15805,12 @@
           <t>비중은 두 물질의 밀도비로서 무차원수이다.</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr"/>
+      <c r="H375" t="n">
+        <v>3</v>
+      </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15087,7 +15835,7 @@
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F376" t="n">
@@ -15098,10 +15846,12 @@
           <t>표준물질인 순수한 물은 0℃, 1기압에서 비중이 1 이다.</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr"/>
+      <c r="H376" t="n">
+        <v>3</v>
+      </c>
       <c r="I376" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15876,7 @@
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F377" t="n">
@@ -15137,10 +15887,12 @@
           <t>밀도의 단위는 N·s2/m4 이다.</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr"/>
+      <c r="H377" t="n">
+        <v>3</v>
+      </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15165,7 +15917,7 @@
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F378" t="n">
@@ -15176,10 +15928,12 @@
           <t>운반기체 흐름속도에 민감하므로 흐름속도를 일정하게 유지한다.</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr"/>
+      <c r="H378" t="n">
+        <v>4</v>
+      </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15204,7 +15958,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F379" t="n">
@@ -15215,10 +15969,12 @@
           <t>필라멘트에 전류를 공급하기전에 일정량의 운반기체를 먼저 흘러 보낸다.</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr"/>
+      <c r="H379" t="n">
+        <v>4</v>
+      </c>
       <c r="I379" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15243,7 +15999,7 @@
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F380" t="n">
@@ -15254,10 +16010,12 @@
           <t>감도를 위해 필라멘트와 검출실 내벽온도를 적정하게 유지한다.</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr"/>
+      <c r="H380" t="n">
+        <v>4</v>
+      </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15282,7 +16040,7 @@
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F381" t="n">
@@ -15293,10 +16051,12 @@
           <t>운반기체의 흐름속도가 클수록 감도가 증가하므로, 높은 흐름속도를 유지한다.</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr"/>
+      <c r="H381" t="n">
+        <v>4</v>
+      </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -15321,7 +16081,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F382" t="n">
@@ -15332,10 +16092,12 @@
           <t>측정의 전력에 따라 동일 측정량에 대한 지시값에 차가 생기는 현상</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr"/>
+      <c r="H382" t="n">
+        <v>3</v>
+      </c>
       <c r="I382" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15360,7 +16122,7 @@
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F383" t="n">
@@ -15371,10 +16133,12 @@
           <t>측정량이 변동될 때 어느 순간에 지시값과 참값에 차가 생기는 현상</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr"/>
+      <c r="H383" t="n">
+        <v>3</v>
+      </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15399,7 +16163,7 @@
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F384" t="n">
@@ -15410,10 +16174,12 @@
           <t>측정량이 변동하지 않을 때의 계측기의 오차</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr"/>
+      <c r="H384" t="n">
+        <v>3</v>
+      </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -15438,7 +16204,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F385" t="n">
@@ -15449,10 +16215,12 @@
           <t>입력 신호변화에 대해 출력신호가 즉시 따라가지 못하는 현상</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr"/>
+      <c r="H385" t="n">
+        <v>3</v>
+      </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15477,7 +16245,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F386" t="n">
@@ -15488,10 +16256,12 @@
           <t>전기량법</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr"/>
+      <c r="H386" t="n">
+        <v>1</v>
+      </c>
       <c r="I386" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -15516,7 +16286,7 @@
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F387" t="n">
@@ -15527,10 +16297,12 @@
           <t>질량분석법</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr"/>
+      <c r="H387" t="n">
+        <v>1</v>
+      </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15555,7 +16327,7 @@
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F388" t="n">
@@ -15566,10 +16338,12 @@
           <t>저온정밀 증류법</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr"/>
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15594,7 +16368,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -15605,10 +16379,12 @@
           <t>적외선 분광광도법</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr"/>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15633,7 +16409,7 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F390" t="n">
@@ -15644,10 +16420,12 @@
           <t>화학적으로 활성을 띠는 물질이 좋다.</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr"/>
+      <c r="H390" t="n">
+        <v>1</v>
+      </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>true</t>
         </is>
       </c>
     </row>
@@ -15672,7 +16450,7 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F391" t="n">
@@ -15683,10 +16461,12 @@
           <t>큰 표면적을 가진 미세한 분말이 좋다.</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr"/>
+      <c r="H391" t="n">
+        <v>1</v>
+      </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15711,7 +16491,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F392" t="n">
@@ -15722,10 +16502,12 @@
           <t>입자크기가 균등하면 분리작용이 좋다.</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr"/>
+      <c r="H392" t="n">
+        <v>1</v>
+      </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
@@ -15750,7 +16532,7 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
       <c r="F393" t="n">
@@ -15761,10 +16543,12 @@
           <t>충전하기 전에 비휘발성 액체로 피복한다.</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr"/>
+      <c r="H393" t="n">
+        <v>1</v>
+      </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>❌</t>
+          <t>false</t>
         </is>
       </c>
     </row>
